--- a/biology/Zoologie/Erythrocercus/Erythrocercus.xlsx
+++ b/biology/Zoologie/Erythrocercus/Erythrocercus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrocercidae
 Erythrocercus est un genre de passereaux.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après les études phylogéniques réalisées par Silke Fregin (d) et son équipe en 2012, bien que ce genre soit proche des Cettiidae, il doit être placé dans sa propre famille, les Erythrocercidae.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 Erythrocercus holochlorus Erlanger, 1901 – Érythrocerque jaune
 Erythrocercus mccallii (Cassin, 1855) – Érythrocerque à tête rousse
 sous-espèce Erythrocercus mccallii nigeriae Bannerman, 1920
@@ -582,7 +598,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Famille des Erythrocercidae :
 (en) Silke Fregin, Martin Haase, Urban Olsson et Per Alström, « New insights into family relationships within the avian superfamily Sylvioidea (Passeriformes) based on seven molecular markers », BMC Evolutionary Biology, BMC et Springer Science+Business Media, vol. 12, no 1,‎ 2012, p. 157 (ISSN 1471-2148, OCLC 47657384, PMID 22920688, PMCID 3462691, DOI 10.1186/1471-2148-12-157)
